--- a/reports/ace_prudent_mato_score_18_08_2020_05_58_02.xlsx
+++ b/reports/ace_prudent_mato_score_18_08_2020_05_58_02.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\raven-extension\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Analogies" sheetId="2" r:id="rId2"/>
     <sheet name="Transformations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -207,8 +212,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +287,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -328,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,9 +373,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,6 +408,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,27 +584,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -624,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,16 +662,16 @@
         <v>44</v>
       </c>
       <c r="I2">
-        <v>0.999132244849317</v>
+        <v>0.99913224484931695</v>
       </c>
       <c r="J2">
-        <v>0.9947856023077251</v>
+        <v>0.99478560230772506</v>
       </c>
       <c r="K2">
-        <v>0.996958923578521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.99695892357852101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -685,16 +697,16 @@
         <v>44</v>
       </c>
       <c r="I3">
-        <v>0.9984494791634914</v>
+        <v>0.99844947916349136</v>
       </c>
       <c r="J3">
-        <v>0.9977560098907797</v>
+        <v>0.99775600989077973</v>
       </c>
       <c r="K3">
-        <v>0.9981027445271355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.99810274452713554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,16 +732,16 @@
         <v>44</v>
       </c>
       <c r="I4">
-        <v>0.9995137501058762</v>
+        <v>0.99951375010587618</v>
       </c>
       <c r="J4">
-        <v>0.9996251405898504</v>
+        <v>0.99962514058985041</v>
       </c>
       <c r="K4">
-        <v>0.9995694453478633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.99956944534786329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -755,16 +767,16 @@
         <v>44</v>
       </c>
       <c r="I5">
-        <v>0.9997273099139747</v>
+        <v>0.99972730991397474</v>
       </c>
       <c r="J5">
-        <v>0.9634631450057767</v>
+        <v>0.96346314500577668</v>
       </c>
       <c r="K5">
-        <v>0.9815952274598757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.98159522745987571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -790,16 +802,16 @@
         <v>44</v>
       </c>
       <c r="I6">
-        <v>0.9978813396773927</v>
+        <v>0.99788133967739268</v>
       </c>
       <c r="J6">
-        <v>0.999629350931809</v>
+        <v>0.99962935093180905</v>
       </c>
       <c r="K6">
-        <v>0.9987553453046009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.99875534530460086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -825,16 +837,16 @@
         <v>44</v>
       </c>
       <c r="I7">
-        <v>0.9992457935388144</v>
+        <v>0.99924579353881438</v>
       </c>
       <c r="J7">
-        <v>0.999503308105655</v>
+        <v>0.99950330810565502</v>
       </c>
       <c r="K7">
         <v>0.9993745508222347</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -860,16 +872,16 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>0.9995657059619789</v>
+        <v>0.99956570596197891</v>
       </c>
       <c r="J8">
-        <v>0.9994737870282978</v>
+        <v>0.99947378702829781</v>
       </c>
       <c r="K8">
-        <v>0.9995197464951384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.99951974649513842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -898,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.988082322167497</v>
+        <v>0.98808232216749703</v>
       </c>
       <c r="K9">
-        <v>0.9940411610837485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.99404116108374851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -930,16 +942,16 @@
         <v>44</v>
       </c>
       <c r="I10">
-        <v>0.9996009657647014</v>
+        <v>0.99960096576470137</v>
       </c>
       <c r="J10">
-        <v>0.9995133517344132</v>
+        <v>0.99951335173441325</v>
       </c>
       <c r="K10">
-        <v>0.9995571587495573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.99955715874955731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -965,16 +977,16 @@
         <v>44</v>
       </c>
       <c r="I11">
-        <v>0.9781781251964312</v>
+        <v>0.97817812519643121</v>
       </c>
       <c r="J11">
-        <v>0.9871796786905054</v>
+        <v>0.98717967869050538</v>
       </c>
       <c r="K11">
         <v>0.9826789019434683</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1000,16 +1012,16 @@
         <v>44</v>
       </c>
       <c r="I12">
-        <v>0.9504871022292614</v>
+        <v>0.95048710222926136</v>
       </c>
       <c r="J12">
-        <v>0.9450231059368117</v>
+        <v>0.94502310593681171</v>
       </c>
       <c r="K12">
-        <v>0.9477551040830365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.94775510408303654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1035,16 +1047,16 @@
         <v>44</v>
       </c>
       <c r="I13">
-        <v>0.9999751040443493</v>
+        <v>0.99997510404434931</v>
       </c>
       <c r="J13">
-        <v>0.9995779785233618</v>
+        <v>0.99957797852336183</v>
       </c>
       <c r="K13">
-        <v>0.9997765412838555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1">
+        <v>0.99977654128385551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1070,16 +1082,16 @@
         <v>44</v>
       </c>
       <c r="I14" s="2">
-        <v>0.6656852366511328</v>
+        <v>0.66568523665113277</v>
       </c>
       <c r="J14" s="2">
         <v>0.9988209203803563</v>
       </c>
       <c r="K14" s="2">
-        <v>0.8322530785157445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.83225307851574448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1105,16 +1117,16 @@
         <v>44</v>
       </c>
       <c r="I15">
-        <v>0.9708417140848389</v>
+        <v>0.97084171408483888</v>
       </c>
       <c r="J15">
-        <v>0.9997492432278586</v>
+        <v>0.99974924322785863</v>
       </c>
       <c r="K15">
-        <v>0.9852954786563488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1">
+        <v>0.98529547865634881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1140,16 +1152,16 @@
         <v>44</v>
       </c>
       <c r="I16" s="2">
-        <v>0.9316357812432685</v>
+        <v>0.93163578124326851</v>
       </c>
       <c r="J16" s="2">
-        <v>0.8019770201743474</v>
+        <v>0.80197702017434735</v>
       </c>
       <c r="K16" s="2">
-        <v>0.8668064007088079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1">
+        <v>0.86680640070880788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1175,16 +1187,16 @@
         <v>44</v>
       </c>
       <c r="I17" s="2">
-        <v>0.7403193717043987</v>
+        <v>0.74031937170439865</v>
       </c>
       <c r="J17" s="2">
-        <v>0.99379995534607</v>
+        <v>0.99379995534607002</v>
       </c>
       <c r="K17" s="2">
-        <v>0.8670596635252343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.86705966352523434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,16 +1222,16 @@
         <v>44</v>
       </c>
       <c r="I18">
-        <v>0.9997459117587946</v>
+        <v>0.99974591175879457</v>
       </c>
       <c r="J18">
-        <v>0.9683213778675057</v>
+        <v>0.96832137786750572</v>
       </c>
       <c r="K18">
-        <v>0.9840336448131501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0.98403364481315014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1245,16 +1257,16 @@
         <v>44</v>
       </c>
       <c r="I19">
-        <v>0.9991544560345881</v>
+        <v>0.99915445603458808</v>
       </c>
       <c r="J19">
-        <v>0.9994206224494839</v>
+        <v>0.99942062244948393</v>
       </c>
       <c r="K19">
-        <v>0.9992875392420359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0.99928753924203595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1280,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="I20">
-        <v>0.9995321094949181</v>
+        <v>0.99953210949491811</v>
       </c>
       <c r="J20">
-        <v>0.9999454560330308</v>
+        <v>0.99994545603303076</v>
       </c>
       <c r="K20">
-        <v>0.9997387827639744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0.99973878276397443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1315,16 +1327,16 @@
         <v>44</v>
       </c>
       <c r="I21">
-        <v>0.9027687308092254</v>
+        <v>0.90276873080922537</v>
       </c>
       <c r="J21">
-        <v>0.9701767765016233</v>
+        <v>0.97017677650162326</v>
       </c>
       <c r="K21">
-        <v>0.9364727536554243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0.93647275365542426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1338,22 +1350,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1399,22 +1409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
